--- a/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 13,41</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,67</t>
+          <t>3,4; 35,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,64</t>
+          <t>0,0; 23,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,4</t>
+          <t>0,0; 28,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,33</t>
+          <t>0,0; 27,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,09</t>
+          <t>0,0; 24,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,31</t>
+          <t>3,88; 37,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,99</t>
+          <t>0,0; 25,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,18</t>
+          <t>0,0; 12,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,48</t>
+          <t>3,34; 21,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,86</t>
+          <t>4,22; 23,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,7</t>
+          <t>0,0; 16,45</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,8</t>
+          <t>6,64; 13,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,01</t>
+          <t>6,26; 12,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,14</t>
+          <t>4,7; 10,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,87</t>
+          <t>4,88; 11,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,77</t>
+          <t>6,8; 13,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,2</t>
+          <t>7,78; 15,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,32</t>
+          <t>8,1; 15,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,59</t>
+          <t>2,72; 7,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,98</t>
+          <t>7,59; 12,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,32</t>
+          <t>7,59; 12,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,18</t>
+          <t>7,26; 11,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,85</t>
+          <t>4,58; 8,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>4,28; 11,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 35,24</t>
+          <t>7,44; 15,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,05</t>
+          <t>7,22; 15,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,66</t>
+          <t>2,25; 8,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,98</t>
+          <t>4,13; 11,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,42</t>
+          <t>6,63; 14,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 37,59</t>
+          <t>6,59; 14,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,17</t>
+          <t>2,58; 8,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,48</t>
+          <t>4,87; 9,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 21,74</t>
+          <t>7,81; 13,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 23,24</t>
+          <t>7,75; 12,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,45</t>
+          <t>2,91; 6,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,49</t>
+          <t>5,56; 11,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,95</t>
+          <t>4,11; 11,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,37</t>
+          <t>7,67; 15,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,3</t>
+          <t>2,65; 9,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,31</t>
+          <t>4,97; 11,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,75</t>
+          <t>4,05; 10,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,18</t>
+          <t>6,62; 14,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,01</t>
+          <t>1,39; 6,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,54</t>
+          <t>6,25; 10,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,64</t>
+          <t>4,67; 9,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,97</t>
+          <t>7,99; 13,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,66</t>
+          <t>2,64; 6,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 35,24</t>
+          <t>3,27; 31,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,05</t>
+          <t>0,0; 23,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,98</t>
+          <t>0,0; 24,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,42</t>
+          <t>0,0; 21,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 37,59</t>
+          <t>3,87; 34,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,48</t>
+          <t>0,0; 12,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 21,74</t>
+          <t>3,48; 20,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 23,24</t>
+          <t>4,28; 23,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,47</t>
+          <t>3,83; 11,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,43</t>
+          <t>7,07; 17,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 17,4</t>
+          <t>6,65; 16,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 11,01</t>
+          <t>2,36; 10,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,99</t>
+          <t>5,0; 13,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 16,48</t>
+          <t>6,32; 16,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,42</t>
+          <t>5,75; 15,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 10,02</t>
+          <t>2,93; 9,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,17</t>
+          <t>5,22; 11,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,05</t>
+          <t>7,66; 15,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 14,05</t>
+          <t>7,16; 14,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,59</t>
+          <t>3,22; 8,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 13,41</t>
+          <t>6,89; 13,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,67</t>
+          <t>6,02; 12,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,64</t>
+          <t>4,97; 10,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,4</t>
+          <t>4,92; 11,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,33</t>
+          <t>6,14; 13,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 15,09</t>
+          <t>7,77; 14,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,31</t>
+          <t>8,49; 15,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 7,99</t>
+          <t>2,64; 7,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,18</t>
+          <t>7,37; 12,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,48</t>
+          <t>7,61; 12,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 11,86</t>
+          <t>7,14; 11,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,7</t>
+          <t>4,59; 8,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,49</t>
+          <t>4,03; 11,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,95</t>
+          <t>7,58; 15,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,37</t>
+          <t>6,98; 15,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,3</t>
+          <t>2,54; 8,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,31</t>
+          <t>3,95; 10,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 14,75</t>
+          <t>6,56; 14,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,18</t>
+          <t>6,57; 14,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,01</t>
+          <t>2,74; 8,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,54</t>
+          <t>5,03; 9,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,64</t>
+          <t>7,94; 13,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,97</t>
+          <t>7,69; 13,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,66</t>
+          <t>2,92; 7,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 11,8</t>
+          <t>5,47; 12,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,01</t>
+          <t>4,49; 11,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,14</t>
+          <t>7,71; 15,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,87</t>
+          <t>2,85; 10,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,77</t>
+          <t>5,19; 12,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,2</t>
+          <t>3,95; 10,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,32</t>
+          <t>6,7; 14,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,59</t>
+          <t>1,47; 6,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,98</t>
+          <t>6,06; 10,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,32</t>
+          <t>4,63; 9,31</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,18</t>
+          <t>7,89; 13,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,85</t>
+          <t>2,68; 7,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,72</t>
+          <t>6,47; 9,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,4</t>
+          <t>7,72; 11,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 11,71</t>
+          <t>8,12; 11,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,88</t>
+          <t>4,53; 7,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,33</t>
+          <t>6,72; 10,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,02</t>
+          <t>7,46; 11,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,58</t>
+          <t>8,66; 12,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,99</t>
+          <t>3,3; 6,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,44</t>
+          <t>7,0; 9,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,79</t>
+          <t>8,16; 10,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,8; 11,57</t>
+          <t>8,78; 11,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,49</t>
+          <t>4,39; 6,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,64 +729,64 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 31,06</t>
+          <t>3,32; 33,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,13</t>
+          <t>0,0; 26,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,66</t>
+          <t>0,0; 31,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,49</t>
+          <t>0,0; 27,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,28</t>
+          <t>0,0; 21,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 34,63</t>
+          <t>4,07; 37,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,17</t>
+          <t>0,0; 25,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,62</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 20,61</t>
+          <t>3,47; 21,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 23,4</t>
+          <t>4,05; 23,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,45</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,31</t>
+          <t>3,92; 10,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,05</t>
+          <t>6,88; 16,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,65; 16,75</t>
+          <t>6,71; 16,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,73</t>
+          <t>2,18; 9,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 13,9</t>
+          <t>5,52; 14,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,27</t>
+          <t>6,28; 16,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,47</t>
+          <t>5,77; 15,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,93</t>
+          <t>2,65; 10,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,3</t>
+          <t>5,33; 11,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,12</t>
+          <t>7,71; 14,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,12</t>
+          <t>7,02; 13,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,39</t>
+          <t>3,41; 8,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 13,33</t>
+          <t>6,65; 13,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,81</t>
+          <t>6,13; 12,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,53</t>
+          <t>4,77; 10,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,47</t>
+          <t>5,08; 11,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,07</t>
+          <t>6,09; 13,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,76</t>
+          <t>7,66; 14,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 15,71</t>
+          <t>8,23; 15,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,66</t>
+          <t>2,9; 7,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,03</t>
+          <t>7,18; 12,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 12,64</t>
+          <t>7,86; 12,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 11,87</t>
+          <t>7,23; 11,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,84</t>
+          <t>4,4; 8,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,58</t>
+          <t>4,25; 11,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 15,59</t>
+          <t>7,38; 15,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,43</t>
+          <t>6,72; 15,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,48</t>
+          <t>2,49; 8,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,77</t>
+          <t>3,85; 10,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 14,86</t>
+          <t>6,58; 14,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,38</t>
+          <t>6,4; 14,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 8,66</t>
+          <t>2,56; 8,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,81</t>
+          <t>4,96; 9,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 13,71</t>
+          <t>8,09; 13,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,12</t>
+          <t>7,52; 13,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,12</t>
+          <t>3,15; 7,02</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,4</t>
+          <t>5,58; 12,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,2</t>
+          <t>4,2; 10,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,81</t>
+          <t>7,79; 15,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,45</t>
+          <t>2,81; 10,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,07</t>
+          <t>5,18; 12,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,43</t>
+          <t>3,66; 10,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 14,1</t>
+          <t>6,66; 14,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,41</t>
+          <t>1,33; 6,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,75</t>
+          <t>6,2; 10,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,31</t>
+          <t>4,71; 9,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 13,24</t>
+          <t>7,99; 13,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,0</t>
+          <t>2,61; 6,91</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,47; 9,81</t>
+          <t>6,44; 9,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,52</t>
+          <t>7,61; 11,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,84</t>
+          <t>8,03; 11,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,69</t>
+          <t>4,54; 7,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,31</t>
+          <t>6,73; 10,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 11,36</t>
+          <t>7,48; 11,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,6</t>
+          <t>8,81; 12,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,16</t>
+          <t>3,32; 5,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,39</t>
+          <t>7,01; 9,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 10,73</t>
+          <t>8,17; 10,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,78; 11,42</t>
+          <t>8,74; 11,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,48</t>
+          <t>4,2; 6,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2001-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>4,98; 13,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 33,72</t>
+          <t>6,43; 14,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,2</t>
+          <t>6,62; 16,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,71</t>
+          <t>3,01; 10,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,78</t>
+          <t>3,33; 9,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,83</t>
+          <t>7,08; 16,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 37,98</t>
+          <t>6,57; 15,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,35</t>
+          <t>2,42; 9,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,58</t>
+          <t>5,04; 10,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 21,05</t>
+          <t>7,81; 14,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 23,08</t>
+          <t>7,53; 13,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,52</t>
+          <t>3,22; 8,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,96</t>
+          <t>6,8; 13,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,72</t>
+          <t>7,78; 15,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,22</t>
+          <t>8,1; 15,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 9,55</t>
+          <t>2,73; 7,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 14,76</t>
+          <t>6,64; 13,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 16,72</t>
+          <t>6,26; 12,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,38</t>
+          <t>4,7; 10,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,03</t>
+          <t>5,02; 11,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,18</t>
+          <t>7,59; 12,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,94</t>
+          <t>7,59; 12,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,9</t>
+          <t>7,26; 11,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,23</t>
+          <t>4,65; 8,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 13,17</t>
+          <t>4,13; 11,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,81</t>
+          <t>6,63; 14,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,57</t>
+          <t>6,59; 14,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,37</t>
+          <t>1,89; 7,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 13,04</t>
+          <t>4,28; 11,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 14,67</t>
+          <t>7,44; 15,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,37</t>
+          <t>7,22; 15,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,91</t>
+          <t>2,19; 8,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 12,04</t>
+          <t>4,87; 9,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 12,73</t>
+          <t>7,81; 13,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,82</t>
+          <t>7,75; 12,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,6</t>
+          <t>2,63; 6,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,61</t>
+          <t>4,97; 11,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 15,59</t>
+          <t>4,05; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 15,27</t>
+          <t>6,62; 14,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,28</t>
+          <t>1,37; 6,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,73</t>
+          <t>5,56; 11,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 14,44</t>
+          <t>4,11; 11,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,34</t>
+          <t>7,67; 15,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,13</t>
+          <t>2,64; 9,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,91</t>
+          <t>6,25; 10,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,71</t>
+          <t>4,67; 9,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 13,23</t>
+          <t>7,99; 13,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,02</t>
+          <t>2,68; 6,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,34</t>
+          <t>6,75; 10,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,88</t>
+          <t>7,43; 11,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,81</t>
+          <t>8,53; 12,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,13</t>
+          <t>3,13; 5,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 12,18</t>
+          <t>6,51; 9,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,3</t>
+          <t>7,68; 11,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 14,44</t>
+          <t>7,9; 11,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,19</t>
+          <t>4,54; 7,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,54</t>
+          <t>7,11; 9,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,19</t>
+          <t>8,13; 10,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,99; 13,18</t>
+          <t>8,8; 11,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,91</t>
+          <t>4,27; 6,48</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,41%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,71%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,21%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 9,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,61; 11,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 11,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 7,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,73; 10,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,48; 11,19</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,81; 12,72</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 5,97</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 9,53</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>8,17; 10,73</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,74; 11,61</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>4,2; 6,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
